--- a/data/trans_camb/P14B23-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,69</t>
+          <t>-3,24; 0,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,94</t>
+          <t>0,7; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,96</t>
+          <t>-3,62; 2,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,96</t>
+          <t>-3,37; 1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,77</t>
+          <t>-3,11; 0,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,02</t>
+          <t>-0,86; 2,9</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 20,91</t>
+          <t>-57,17; 20,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 156,89</t>
+          <t>10,2; 161,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 14,81</t>
+          <t>-23,94; 16,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 15,28</t>
+          <t>-21,57; 16,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 8,22</t>
+          <t>-28,22; 10,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 32,03</t>
+          <t>-7,77; 32,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,8</t>
+          <t>-0,97; 0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,97</t>
+          <t>-0,3; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,28</t>
+          <t>-1,64; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,91</t>
+          <t>-0,86; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,91</t>
+          <t>-0,91; 0,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,18</t>
+          <t>-0,04; 2,05</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 55,02</t>
+          <t>-40,27; 57,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 127,26</t>
+          <t>-12,02; 131,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 30,24</t>
+          <t>-27,86; 30,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 65,09</t>
+          <t>-14,63; 65,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 30,29</t>
+          <t>-23,5; 31,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 73,31</t>
+          <t>-1,02; 67,6</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,73</t>
+          <t>-1,54; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,45</t>
+          <t>0,84; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,25</t>
+          <t>-2,33; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,0</t>
+          <t>0,04; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,83</t>
+          <t>-1,37; 0,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,59</t>
+          <t>0,98; 3,64</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,1; —</t>
+          <t>-15,62; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,92; 154,53</t>
+          <t>-78,91; 157,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 439,82</t>
+          <t>-6,29; 391,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 150,13</t>
+          <t>-69,08; 134,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,3; 549,82</t>
+          <t>37,62; 589,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,24</t>
+          <t>-1,26; 0,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,18</t>
+          <t>0,14; 2,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,02</t>
+          <t>-2,61; -0,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,58</t>
+          <t>-2,22; 0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,18</t>
+          <t>-1,73; -0,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,06</t>
+          <t>-0,65; 1,04</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 12,82</t>
+          <t>-42,77; 12,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 102,86</t>
+          <t>4,73; 100,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -0,34</t>
+          <t>-30,68; -1,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 7,51</t>
+          <t>-26,46; 7,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,81; -3,34</t>
+          <t>-29,77; -3,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 20,7</t>
+          <t>-12,36; 20,51</t>
         </is>
       </c>
     </row>
